--- a/7月制作内容/系统文档/【蔡文吉】玩家信息.xlsx
+++ b/7月制作内容/系统文档/【蔡文吉】玩家信息.xlsx
@@ -14,9 +14,363 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118">
   <si>
     <t>玩家信息</t>
+  </si>
+  <si>
+    <t>设计目的</t>
+  </si>
+  <si>
+    <t>展示玩家资源，势力，属性总览</t>
+  </si>
+  <si>
+    <t>设置音效，账号登录等功能。</t>
+  </si>
+  <si>
+    <t>展示身份等级成长线</t>
+  </si>
+  <si>
+    <t>设计思路</t>
+  </si>
+  <si>
+    <t>主要展示玩家资源，势力，属性总览</t>
+  </si>
+  <si>
+    <t>设置通过弹窗显示</t>
+  </si>
+  <si>
+    <t>身份等级成长线结合角色立绘，展现玩家成长的先后变化</t>
+  </si>
+  <si>
+    <t>玩家信息内容</t>
+  </si>
+  <si>
+    <t>资源信息</t>
+  </si>
+  <si>
+    <t>游戏内的核心资源分为3种：</t>
+  </si>
+  <si>
+    <t>铜钱</t>
+  </si>
+  <si>
+    <t>主要（持续更新）</t>
+  </si>
+  <si>
+    <t>次要（持续更新）</t>
+  </si>
+  <si>
+    <t>获取途径</t>
+  </si>
+  <si>
+    <t>征收</t>
+  </si>
+  <si>
+    <t>暂无</t>
+  </si>
+  <si>
+    <t>消耗途径</t>
+  </si>
+  <si>
+    <t>卡牌升级</t>
+  </si>
+  <si>
+    <t>阅历</t>
+  </si>
+  <si>
+    <t>声望征收时消耗</t>
+  </si>
+  <si>
+    <t>声望</t>
+  </si>
+  <si>
+    <t>据点战斗</t>
+  </si>
+  <si>
+    <t>VIP等级</t>
+  </si>
+  <si>
+    <t>显示玩家当前VIP等级</t>
+  </si>
+  <si>
+    <t>玩家名字信息</t>
+  </si>
+  <si>
+    <t>显示玩家名称（改名功能直接做在道具上）</t>
+  </si>
+  <si>
+    <t>显示玩家编号ID（加好友不用输入生僻字，邀请ID等功能）</t>
+  </si>
+  <si>
+    <t>玩家身份信息</t>
+  </si>
+  <si>
+    <t>显示玩家身份成长线，已解锁的身份可切换查看角色形象变化，未解锁的身份无法显示形象</t>
+  </si>
+  <si>
+    <t>打开界面时，默认显示玩家当前身份</t>
+  </si>
+  <si>
+    <t>属性</t>
+  </si>
+  <si>
+    <t>3.5.1</t>
+  </si>
+  <si>
+    <t>属性说明</t>
+  </si>
+  <si>
+    <t>属性划分为4种：聪慧、才华、魅力、威严</t>
+  </si>
+  <si>
+    <t>作用</t>
+  </si>
+  <si>
+    <t>效果说明</t>
+  </si>
+  <si>
+    <t>聪慧</t>
+  </si>
+  <si>
+    <t>影响征收铜钱收益</t>
+  </si>
+  <si>
+    <t>1聪慧=1铜钱</t>
+  </si>
+  <si>
+    <t>才华</t>
+  </si>
+  <si>
+    <t>影响征收阅历收益</t>
+  </si>
+  <si>
+    <t>1才华=1阅历</t>
+  </si>
+  <si>
+    <t>魅力</t>
+  </si>
+  <si>
+    <t>影响征收声望收益</t>
+  </si>
+  <si>
+    <t>1魅力=1声望（获取声望消耗阅历数量根据征收配置表）</t>
+  </si>
+  <si>
+    <t>威严</t>
+  </si>
+  <si>
+    <t xml:space="preserve">影响战斗中声望消耗
+</t>
+  </si>
+  <si>
+    <t>战斗力公式=声望值*（1+威望值/1000）
+战斗消耗公式=对方战斗力/（1+自身威严属性/1000）</t>
+  </si>
+  <si>
+    <t>3.5.2</t>
+  </si>
+  <si>
+    <t>属性来源</t>
+  </si>
+  <si>
+    <t>玩家自身除了成长值和身份等级外，没有其他属性，需通过其他载体赋予</t>
+  </si>
+  <si>
+    <t>1.玩家所拥有的卡牌各项属性总和</t>
+  </si>
+  <si>
+    <t>2.所有子嗣各项属性总和（现阶段未设计）</t>
+  </si>
+  <si>
+    <t>势力</t>
+  </si>
+  <si>
+    <t>玩家势力=玩家4项属性之和</t>
+  </si>
+  <si>
+    <t>界面说明</t>
+  </si>
+  <si>
+    <t>功能入口</t>
+  </si>
+  <si>
+    <t>主界面点击左上玩家头像，打开玩家信息界面</t>
+  </si>
+  <si>
+    <t>玩家信息界面</t>
+  </si>
+  <si>
+    <t>4.2.A</t>
+  </si>
+  <si>
+    <t>4.2.B</t>
+  </si>
+  <si>
+    <t>4.2.C</t>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>操作说明</t>
+  </si>
+  <si>
+    <t>显示说明</t>
+  </si>
+  <si>
+    <t>修改备注</t>
+  </si>
+  <si>
+    <t>返回按钮</t>
+  </si>
+  <si>
+    <t>单击，返回主界面</t>
+  </si>
+  <si>
+    <t>资源信息栏</t>
+  </si>
+  <si>
+    <t>显示三项主要资源铜钱、阅历、声望</t>
+  </si>
+  <si>
+    <t>界面背景</t>
+  </si>
+  <si>
+    <t>室外背景（庭院或走廊，区别于房间）</t>
+  </si>
+  <si>
+    <t>设置按钮</t>
+  </si>
+  <si>
+    <t>单击，弹出设置弹窗（图4.2.C）</t>
+  </si>
+  <si>
+    <t>玩家形象</t>
+  </si>
+  <si>
+    <t>显示主角当前身份对应的全身像（无换装）</t>
+  </si>
+  <si>
+    <t>vip等级</t>
+  </si>
+  <si>
+    <t>玩家名称编号</t>
+  </si>
+  <si>
+    <t>显示玩家唯一ID</t>
+  </si>
+  <si>
+    <t>身份切换按钮</t>
+  </si>
+  <si>
+    <t>单击，左右按钮，向相应方向切换一次身份</t>
+  </si>
+  <si>
+    <t>未解锁身份</t>
+  </si>
+  <si>
+    <t>未解锁的身份提示图标有灰色遮罩</t>
+  </si>
+  <si>
+    <t>当前身份</t>
+  </si>
+  <si>
+    <t>当前所选身份的提示图标固定居中，且放大30~40%</t>
+  </si>
+  <si>
+    <t>玩家属性信息</t>
+  </si>
+  <si>
+    <t>上方显示玩家势力，下方显示玩家四项属性</t>
+  </si>
+  <si>
+    <t>未解锁形象</t>
+  </si>
+  <si>
+    <t>未解锁身份的主角形象为统一的灰色剪影</t>
+  </si>
+  <si>
+    <t>未解锁提示</t>
+  </si>
+  <si>
+    <t>未解锁的提示信息</t>
+  </si>
+  <si>
+    <t>示意效果</t>
+  </si>
+  <si>
+    <t>（标注10）对比示意效果</t>
+  </si>
+  <si>
+    <t>关闭按钮</t>
+  </si>
+  <si>
+    <t>单击，关闭弹窗</t>
+  </si>
+  <si>
+    <t>静音控制按钮</t>
+  </si>
+  <si>
+    <t>单击，切换静音开关状态
+开启静音时，背景音及界面音效全部关闭</t>
+  </si>
+  <si>
+    <t>背景音控制</t>
+  </si>
+  <si>
+    <t>单击，切换背景音开关状态</t>
+  </si>
+  <si>
+    <t>背景音拖拉</t>
+  </si>
+  <si>
+    <t>左右拖动，增减音量大小</t>
+  </si>
+  <si>
+    <t>音效控制</t>
+  </si>
+  <si>
+    <t>单击，切换界面音效开关状态</t>
+  </si>
+  <si>
+    <t>音效拖拉</t>
+  </si>
+  <si>
+    <t>标灰暂不管</t>
+  </si>
+  <si>
+    <t>兑换码按钮</t>
+  </si>
+  <si>
+    <t>单击，弹出兑换码弹窗</t>
+  </si>
+  <si>
+    <t>返回登录按钮</t>
+  </si>
+  <si>
+    <t>单击，返回服务器选择界面</t>
+  </si>
+  <si>
+    <t>客服按钮</t>
+  </si>
+  <si>
+    <t>单击，打开客服联系界面</t>
+  </si>
+  <si>
+    <t>用户中心按钮</t>
+  </si>
+  <si>
+    <t>单击，打开用户账号管理</t>
+  </si>
+  <si>
+    <t>关联账号</t>
+  </si>
+  <si>
+    <t>单击，关联外联账号</t>
   </si>
 </sst>
 </file>
@@ -25,11 +379,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -38,87 +392,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="5" tint="-0.25"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -151,10 +428,71 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -168,7 +506,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,8 +527,23 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -191,37 +552,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="0" tint="-0.35"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -239,7 +600,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -251,7 +696,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -263,120 +744,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -385,11 +764,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -399,30 +784,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -442,17 +803,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -474,11 +831,48 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -490,10 +884,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -502,139 +896,163 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -695,6 +1113,4240 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1487170</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>170180</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="图片 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1381125" y="19716750"/>
+          <a:ext cx="3087370" cy="5485130"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1466215</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>109220</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1390650" y="13373100"/>
+          <a:ext cx="3056890" cy="5424170"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="圆角矩形标注 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="904875" y="19783425"/>
+          <a:ext cx="409575" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 91403"/>
+            <a:gd name="adj2" fmla="val -32280"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1590675</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1972310</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="圆角矩形标注 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4572000" y="19802475"/>
+          <a:ext cx="381635" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -92807"/>
+            <a:gd name="adj2" fmla="val -11228"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="圆角矩形标注 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="904875" y="20640675"/>
+          <a:ext cx="409575" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 128604"/>
+            <a:gd name="adj2" fmla="val -11228"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1637665</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2019300</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="圆角矩形标注 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4618990" y="20545425"/>
+          <a:ext cx="381635" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -137687"/>
+            <a:gd name="adj2" fmla="val 7192"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>132715</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>151765</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="圆角矩形标注 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="876300" y="21563965"/>
+          <a:ext cx="409575" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 292170"/>
+            <a:gd name="adj2" fmla="val 28245"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>8890</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>27940</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="圆角矩形标注 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="876300" y="22297390"/>
+          <a:ext cx="409575" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 419457"/>
+            <a:gd name="adj2" fmla="val 322982"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>6</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1713865</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2095500</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="圆角矩形标注 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4695190" y="22393275"/>
+          <a:ext cx="381635" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -433527"/>
+            <a:gd name="adj2" fmla="val 367719"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>7</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>46990</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>66040</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="圆角矩形标注 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="828675" y="23535640"/>
+          <a:ext cx="409575" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 128759"/>
+            <a:gd name="adj2" fmla="val 170350"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>8</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>161290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>8890</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="圆角矩形标注 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="847725" y="24507190"/>
+          <a:ext cx="409575" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 440387"/>
+            <a:gd name="adj2" fmla="val -61228"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>10</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1628140</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2009775</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="圆角矩形标注 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4609465" y="23679150"/>
+          <a:ext cx="381635" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -373627"/>
+            <a:gd name="adj2" fmla="val 136140"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>9</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1609090</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1990725</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="圆角矩形标注 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4590415" y="24707850"/>
+          <a:ext cx="381635" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -156489"/>
+            <a:gd name="adj2" fmla="val -3333"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>11</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>370840</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>166370</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11953875" y="19716750"/>
+          <a:ext cx="3085465" cy="5481320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1314450</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>291465</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>170815</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="图片 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7077075" y="19726275"/>
+          <a:ext cx="3082290" cy="5476240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>113665</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1238250</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>132715</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="圆角矩形标注 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6591300" y="21544915"/>
+          <a:ext cx="409575" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 440387"/>
+            <a:gd name="adj2" fmla="val -61228"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>12</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>332740</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="圆角矩形标注 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10200640" y="21516975"/>
+          <a:ext cx="381635" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -398585"/>
+            <a:gd name="adj2" fmla="val 128245"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>13</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>961390</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1343025</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="圆角矩形标注 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6724015" y="23888700"/>
+          <a:ext cx="381635" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 440016"/>
+            <a:gd name="adj2" fmla="val 67719"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>14</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>75565</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>94615</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="圆角矩形标注 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15068550" y="20649565"/>
+          <a:ext cx="409575" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -85193"/>
+            <a:gd name="adj2" fmla="val 99298"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>15</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>142240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>161290</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="圆角矩形标注 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11553825" y="21059140"/>
+          <a:ext cx="409575" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 263643"/>
+            <a:gd name="adj2" fmla="val 99298"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>16</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>66040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>85090</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="圆角矩形标注 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11563350" y="21497290"/>
+          <a:ext cx="409575" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 256666"/>
+            <a:gd name="adj2" fmla="val 46666"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>17</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>85090</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>104140</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="圆角矩形标注 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15059025" y="21516340"/>
+          <a:ext cx="409575" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -99147"/>
+            <a:gd name="adj2" fmla="val 46666"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>18</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>132715</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>151765</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="圆角矩形标注 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11572875" y="21906865"/>
+          <a:ext cx="409575" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 245038"/>
+            <a:gd name="adj2" fmla="val -5964"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>19</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>142240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>161290</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="圆角矩形标注 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15059025" y="21916390"/>
+          <a:ext cx="409575" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -110775"/>
+            <a:gd name="adj2" fmla="val 12456"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>20</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>8890</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>27940</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="圆角矩形标注 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11572875" y="22468840"/>
+          <a:ext cx="409575" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100852"/>
+            <a:gd name="adj2" fmla="val 36140"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>21</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>142240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>161290</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="圆角矩形标注 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15039975" y="22602190"/>
+          <a:ext cx="409575" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -110775"/>
+            <a:gd name="adj2" fmla="val 12456"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>22</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>85090</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>104140</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="圆角矩形标注 29"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11563350" y="23059390"/>
+          <a:ext cx="409575" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 117131"/>
+            <a:gd name="adj2" fmla="val -8596"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>23</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>94615</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>113665</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="圆角矩形标注 30"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15059025" y="23068915"/>
+          <a:ext cx="409575" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -124728"/>
+            <a:gd name="adj2" fmla="val -701"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>24</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>56515</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>75565</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="圆角矩形标注 31"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11563350" y="23545165"/>
+          <a:ext cx="409575" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 117131"/>
+            <a:gd name="adj2" fmla="val -8596"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>25</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>389890</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>65405</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>113665</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>84455</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="圆角矩形标注 32"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15058390" y="23554055"/>
+          <a:ext cx="409575" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -124728"/>
+            <a:gd name="adj2" fmla="val -701"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>26</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -955,21 +5607,752 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A2"/>
+  <dimension ref="A2:N173"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="J164" sqref="J164"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="4" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="36.5" customWidth="1"/>
+    <col min="6" max="6" width="35.875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19">
+        <v>3.1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="4:6">
+      <c r="D23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="4:6">
+      <c r="D24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="4:6">
+      <c r="D25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="27" spans="4:6">
+      <c r="D27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="4:6">
+      <c r="D28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="4:6">
+      <c r="D29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="31" spans="4:6">
+      <c r="D31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="4:6">
+      <c r="D32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="4:6">
+      <c r="D33" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F33" s="3"/>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="B36">
+        <v>3.2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3">
+      <c r="C38" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="B40">
+        <v>3.3</v>
+      </c>
+      <c r="C40" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3">
+      <c r="C42" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3">
+      <c r="C43" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3">
+      <c r="B45">
+        <v>3.4</v>
+      </c>
+      <c r="C45" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3">
+      <c r="C47" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3">
+      <c r="C48" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3">
+      <c r="B50">
+        <v>3.5</v>
+      </c>
+      <c r="C50" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="3:4">
+      <c r="C52" t="s">
+        <v>33</v>
+      </c>
+      <c r="D52" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="54" spans="4:4">
+      <c r="D54" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="56" spans="4:6">
+      <c r="D56" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="57" spans="4:6">
+      <c r="D57" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" spans="4:6">
+      <c r="D58" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="59" ht="27" spans="4:6">
+      <c r="D59" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="60" ht="40.5" spans="4:6">
+      <c r="D60" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="62" spans="3:4">
+      <c r="C62" t="s">
+        <v>50</v>
+      </c>
+      <c r="D62" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="64" spans="4:4">
+      <c r="D64" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="66" spans="4:5">
+      <c r="D66" t="s">
+        <v>51</v>
+      </c>
+      <c r="E66" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="67" spans="5:5">
+      <c r="E67" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="68" spans="5:5">
+      <c r="E68" s="5"/>
+    </row>
+    <row r="69" spans="2:5">
+      <c r="B69">
+        <v>3.6</v>
+      </c>
+      <c r="C69" t="s">
+        <v>55</v>
+      </c>
+      <c r="E69" s="5"/>
+    </row>
+    <row r="70" spans="5:5">
+      <c r="E70" s="5"/>
+    </row>
+    <row r="71" spans="3:5">
+      <c r="C71" t="s">
+        <v>56</v>
+      </c>
+      <c r="E71" s="5"/>
+    </row>
+    <row r="72" spans="5:5">
+      <c r="E72" s="5"/>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74">
+        <v>4</v>
+      </c>
+      <c r="B74" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3">
+      <c r="B75">
+        <v>4.1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="109" spans="3:3">
+      <c r="C109" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3">
+      <c r="B111">
+        <v>4.2</v>
+      </c>
+      <c r="C111" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="112" spans="4:14">
+      <c r="D112" t="s">
+        <v>61</v>
+      </c>
+      <c r="G112" t="s">
+        <v>62</v>
+      </c>
+      <c r="N112" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="147" spans="3:7">
+      <c r="C147" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D147" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E147" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F147" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G147" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="148" spans="3:7">
+      <c r="C148" s="3">
+        <v>1</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F148" s="3"/>
+      <c r="G148" s="3"/>
+    </row>
+    <row r="149" spans="3:7">
+      <c r="C149" s="3">
+        <v>2</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E149" s="3"/>
+      <c r="F149" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G149" s="3"/>
+    </row>
+    <row r="150" spans="3:7">
+      <c r="C150" s="3">
+        <v>3</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E150" s="3"/>
+      <c r="F150" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G150" s="3"/>
+    </row>
+    <row r="151" spans="3:7">
+      <c r="C151" s="3">
+        <v>4</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F151" s="3"/>
+      <c r="G151" s="3"/>
+    </row>
+    <row r="152" spans="3:7">
+      <c r="C152" s="3">
+        <v>5</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E152" s="3"/>
+      <c r="F152" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G152" s="3"/>
+    </row>
+    <row r="153" spans="3:7">
+      <c r="C153" s="3">
+        <v>6</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E153" s="3"/>
+      <c r="F153" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G153" s="3"/>
+    </row>
+    <row r="154" spans="3:7">
+      <c r="C154" s="3">
+        <v>7</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E154" s="3"/>
+      <c r="F154" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G154" s="3"/>
+    </row>
+    <row r="155" spans="3:7">
+      <c r="C155" s="3">
+        <v>8</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F155" s="3"/>
+      <c r="G155" s="3"/>
+    </row>
+    <row r="156" spans="3:7">
+      <c r="C156" s="3">
+        <v>9</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E156" s="3"/>
+      <c r="F156" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G156" s="3"/>
+    </row>
+    <row r="157" ht="27" spans="3:7">
+      <c r="C157" s="3">
+        <v>10</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E157" s="3"/>
+      <c r="F157" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G157" s="3"/>
+    </row>
+    <row r="158" spans="3:7">
+      <c r="C158" s="3">
+        <v>11</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E158" s="3"/>
+      <c r="F158" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G158" s="3"/>
+    </row>
+    <row r="159" spans="3:7">
+      <c r="C159" s="3">
+        <v>12</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E159" s="3"/>
+      <c r="F159" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G159" s="3"/>
+    </row>
+    <row r="160" spans="3:7">
+      <c r="C160" s="3">
+        <v>13</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E160" s="3"/>
+      <c r="F160" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G160" s="3"/>
+    </row>
+    <row r="161" spans="3:7">
+      <c r="C161" s="3">
+        <v>14</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E161" s="3"/>
+      <c r="F161" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G161" s="3"/>
+    </row>
+    <row r="162" spans="3:7">
+      <c r="C162" s="7">
+        <v>15</v>
+      </c>
+      <c r="D162" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E162" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F162" s="7"/>
+      <c r="G162" s="7"/>
+    </row>
+    <row r="163" ht="27" spans="3:7">
+      <c r="C163" s="7">
+        <v>16</v>
+      </c>
+      <c r="D163" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E163" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F163" s="7"/>
+      <c r="G163" s="7"/>
+    </row>
+    <row r="164" spans="3:7">
+      <c r="C164" s="7">
+        <v>17</v>
+      </c>
+      <c r="D164" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E164" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F164" s="7"/>
+      <c r="G164" s="7"/>
+    </row>
+    <row r="165" spans="3:7">
+      <c r="C165" s="7">
+        <v>18</v>
+      </c>
+      <c r="D165" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E165" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F165" s="7"/>
+      <c r="G165" s="7"/>
+    </row>
+    <row r="166" spans="3:7">
+      <c r="C166" s="7">
+        <v>19</v>
+      </c>
+      <c r="D166" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E166" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F166" s="7"/>
+      <c r="G166" s="7"/>
+    </row>
+    <row r="167" spans="3:7">
+      <c r="C167" s="7">
+        <v>20</v>
+      </c>
+      <c r="D167" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E167" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F167" s="7"/>
+      <c r="G167" s="7"/>
+    </row>
+    <row r="168" spans="2:7">
+      <c r="B168" t="s">
+        <v>107</v>
+      </c>
+      <c r="C168" s="7">
+        <v>21</v>
+      </c>
+      <c r="D168" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E168" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F168" s="7"/>
+      <c r="G168" s="7"/>
+    </row>
+    <row r="169" spans="3:7">
+      <c r="C169" s="7">
+        <v>22</v>
+      </c>
+      <c r="D169" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E169" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F169" s="7"/>
+      <c r="G169" s="7"/>
+    </row>
+    <row r="170" spans="3:7">
+      <c r="C170" s="7">
+        <v>23</v>
+      </c>
+      <c r="D170" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E170" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F170" s="7"/>
+      <c r="G170" s="7"/>
+    </row>
+    <row r="171" spans="3:7">
+      <c r="C171" s="7">
+        <v>24</v>
+      </c>
+      <c r="D171" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E171" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F171" s="7"/>
+      <c r="G171" s="7"/>
+    </row>
+    <row r="172" spans="3:7">
+      <c r="C172" s="7">
+        <v>25</v>
+      </c>
+      <c r="D172" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E172" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F172" s="7"/>
+      <c r="G172" s="7"/>
+    </row>
+    <row r="173" spans="3:7">
+      <c r="C173" s="7">
+        <v>26</v>
+      </c>
+      <c r="D173" s="7"/>
+      <c r="E173" s="7"/>
+      <c r="F173" s="7"/>
+      <c r="G173" s="7"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>